--- a/utils/localisation_script/excel_to_json/gu/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/gu/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/gu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/gu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1AC557-F429-B446-8C51-6569B92B95C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BA1764-27CC-E44D-B6C0-F3EED559EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Contribute your voice</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Gujarati</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>ઉર્દૂ</t>
   </si>
   <si>
-    <t>કૃપા કરીને આગળ પ્રક્રિયા કરતા પહેલા &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; નિયમો અને શરતો &lt;/a&gt; સાથે સંમત થાઓ</t>
-  </si>
-  <si>
     <t>તમારા અવાજનો ફાળો આપો</t>
   </si>
   <si>
@@ -214,10 +208,16 @@
     <t>અહીં ટાઇપ કરવાનું શરૂ કરો</t>
   </si>
   <si>
-    <t>"Your next goal is to reach &lt;span id=\"next_badge_count\"&gt;&lt;/span&gt; sentences to earn your &lt;span id=\"next_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge. &lt;a href=\"../badges.html\"&gt;Know more&lt;/a&gt;</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
   </si>
   <si>
-    <t>તમારું આગામી લક્ષ્ય &lt;span id=\"next_badge_name_1\"&gt;&lt;/span&gt; ભાષા સમર્થક બેજ મેળવવા માટે &lt;span id="next_badge_count"&gt;&lt;/span&gt; વાક્ય સુધી પહોંચવાનું છે.</t>
+    <t>કૃપા કરીને આગળ પ્રક્રિયા કરતા પહેલા &lt;a href="../terms-and-conditions.html" target="_blank"&gt; નિયમો અને શરતો &lt;/a&gt; સાથે સંમત થાઓ</t>
+  </si>
+  <si>
+    <t>તમારું આગામી લક્ષ્ય &lt;span id="next_badge_name_1"&gt;&lt;/span&gt; ભાષા સમર્થક બેજ મેળવવા માટે &lt;span id="next_badge_count"&gt;&lt;/span&gt; વાક્ય સુધી પહોંચવાનું છે.</t>
+  </si>
+  <si>
+    <t>Your next goal is to reach &lt;span id="next_badge_count"&gt;&lt;/span&gt; sentences to earn your &lt;span id="next_badge_name_1"&gt;&lt;/span&gt; Bhasha Samarthak Badge. &lt;a href="../badges.html"&gt;Know more&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -745,7 +745,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -778,7 +778,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -976,7 +976,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1500,11 +1500,11 @@
     <row r="30" spans="1:27" ht="15">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1665,11 +1665,11 @@
     <row r="35" spans="1:27" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
